--- a/biology/Médecine/Complication_(médecine)/Complication_(médecine).xlsx
+++ b/biology/Médecine/Complication_(médecine)/Complication_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Complication_(m%C3%A9decine)</t>
+          <t>Complication_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, une complication est l'évolution défavorable d'une maladie, d'un état de santé ou d'un traitement médical.
 La maladie peut empirer dans sa gravité ou montrer un nombre plus élevé de signes, de symptômes ou de nouveaux changements pathologiques, se répandre dans tout le corps ou affecter d'autres systèmes d'organes. Un traitement médical, tel que des médicaments ou une intervention chirurgicale, peut produire des effets indésirables et/ou engendrer de nouveaux problèmes de santé. Une nouvelle maladie peut également apparaître comme une complication d'une maladie déjà existante.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complication_(m%C3%A9decine)</t>
+          <t>Complication_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Exemples de complications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une septicémie généralisée (infection du sang) peut survenir de la complication de l'infection d'une blessure ou d'un abcès.
 Un choc allergique peut être une complication d'une anesthésie générale.
